--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-015 - Normal Sales AMA Input Agenda pada Portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-015 - Normal Sales AMA Input Agenda pada Portal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088D7DB-0954-4252-95A7-A2B30E98D23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1CCF71-8654-4D9D-B7BA-ED8F8254808C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0338" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0026" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,9 +95,6 @@
     <t>TEXT8</t>
   </si>
   <si>
-    <t>SCD0338-015</t>
-  </si>
-  <si>
     <t>Sales AMA melakukan input agenda</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>06:00 PM</t>
+  </si>
+  <si>
+    <t>SCD0026-015</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="W1"/>
       <c r="X1"/>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="4">
         <v>22997</v>
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>18</v>
@@ -696,28 +696,28 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="11" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-11-03</v>
+        <v>2022-11-08</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f ca="1">TEXT(TODAY(),"mmmm")</f>
         <v>November</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="15"/>
